--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200303.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200303.xlsx
@@ -10298,12 +10298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -10390,45 +10390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10441,40 +10403,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10495,6 +10440,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -10504,7 +10502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10518,17 +10516,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10553,13 +10553,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10571,31 +10679,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10607,49 +10715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10667,73 +10733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10744,45 +10744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10797,6 +10758,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10827,11 +10797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10844,53 +10820,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10899,94 +10899,94 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11025,14 +11025,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11377,9 +11377,9 @@
   <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3:V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" customHeight="1"/>
@@ -12826,7 +12826,7 @@
         <v>43894.375</v>
       </c>
       <c r="U19" s="15"/>
-      <c r="V19" t="s">
+      <c r="V19" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W19" s="23"/>
@@ -12900,7 +12900,7 @@
         <v>43894.375</v>
       </c>
       <c r="U20" s="15"/>
-      <c r="V20" t="s">
+      <c r="V20" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W20" s="23"/>
@@ -12972,7 +12972,7 @@
         <v>43894.375</v>
       </c>
       <c r="U21" s="15"/>
-      <c r="V21" t="s">
+      <c r="V21" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W21" s="23"/>
@@ -13044,7 +13044,7 @@
         <v>43894.375</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" t="s">
+      <c r="V22" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W22" s="23"/>
@@ -13116,7 +13116,7 @@
         <v>43894.375</v>
       </c>
       <c r="U23" s="15"/>
-      <c r="V23" t="s">
+      <c r="V23" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W23" s="23"/>
@@ -13188,7 +13188,7 @@
         <v>43894.375</v>
       </c>
       <c r="U24" s="15"/>
-      <c r="V24" t="s">
+      <c r="V24" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W24" s="23"/>
@@ -13260,7 +13260,7 @@
         <v>43894.375</v>
       </c>
       <c r="U25" s="15"/>
-      <c r="V25" t="s">
+      <c r="V25" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W25" s="23"/>
@@ -13332,7 +13332,7 @@
         <v>43894.375</v>
       </c>
       <c r="U26" s="15"/>
-      <c r="V26" t="s">
+      <c r="V26" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W26" s="23"/>
@@ -13404,7 +13404,7 @@
         <v>43894.375</v>
       </c>
       <c r="U27" s="15"/>
-      <c r="V27" t="s">
+      <c r="V27" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W27" s="23"/>
@@ -13476,7 +13476,7 @@
         <v>43894.375</v>
       </c>
       <c r="U28" s="15"/>
-      <c r="V28" t="s">
+      <c r="V28" s="22" t="s">
         <v>68</v>
       </c>
       <c r="W28" s="23"/>
@@ -14362,7 +14362,7 @@
         <v>43894.375</v>
       </c>
       <c r="U40" s="15"/>
-      <c r="V40" t="s">
+      <c r="V40" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W40" s="23"/>
@@ -14436,7 +14436,7 @@
         <v>43894.375</v>
       </c>
       <c r="U41" s="15"/>
-      <c r="V41" t="s">
+      <c r="V41" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W41" s="23"/>
@@ -14510,7 +14510,7 @@
         <v>43894.375</v>
       </c>
       <c r="U42" s="15"/>
-      <c r="V42" t="s">
+      <c r="V42" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W42" s="23"/>
@@ -14586,7 +14586,7 @@
         <v>43894.375</v>
       </c>
       <c r="U43" s="15"/>
-      <c r="V43" t="s">
+      <c r="V43" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W43" s="23"/>
@@ -14660,7 +14660,7 @@
         <v>43894.375</v>
       </c>
       <c r="U44" s="15"/>
-      <c r="V44" t="s">
+      <c r="V44" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W44" s="23"/>
@@ -14734,7 +14734,7 @@
         <v>43894.375</v>
       </c>
       <c r="U45" s="15"/>
-      <c r="V45" t="s">
+      <c r="V45" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W45" s="23"/>
@@ -14808,7 +14808,7 @@
         <v>43894.375</v>
       </c>
       <c r="U46" s="15"/>
-      <c r="V46" t="s">
+      <c r="V46" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W46" s="23"/>
@@ -14882,7 +14882,7 @@
         <v>43894.375</v>
       </c>
       <c r="U47" s="15"/>
-      <c r="V47" t="s">
+      <c r="V47" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W47" s="23"/>
@@ -14956,7 +14956,7 @@
         <v>43894.375</v>
       </c>
       <c r="U48" s="15"/>
-      <c r="V48" t="s">
+      <c r="V48" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W48" s="23"/>
@@ -15030,7 +15030,7 @@
         <v>43894.375</v>
       </c>
       <c r="U49" s="15"/>
-      <c r="V49" t="s">
+      <c r="V49" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W49" s="23"/>
@@ -15104,7 +15104,7 @@
         <v>43894.375</v>
       </c>
       <c r="U50" s="15"/>
-      <c r="V50" t="s">
+      <c r="V50" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W50" s="23"/>
@@ -15178,7 +15178,7 @@
         <v>43894.375</v>
       </c>
       <c r="U51" s="15"/>
-      <c r="V51" t="s">
+      <c r="V51" s="22" t="s">
         <v>90</v>
       </c>
       <c r="W51" s="23"/>
@@ -16922,6 +16922,12 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC18 AC43 AC44 AC45 AC46 AC49 AC50 AC58 AC59 AC66 AC72 AC3:AC12 AC13:AC15 AC16:AC17 AC19:AC24 AC25:AC28 AC29:AC31 AC32:AC39 AC40:AC42 AC47:AC48 AC51:AC57 AC60:AC62 AC63:AC65 AC67:AC68 AC69:AC71 AC73:AC75 AC76:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L2 M2:O2 P2:R2 I18:L18 M18:O18 P18:R18 I31:K31 M31 O31 P31:R31 N40 N41 N42 I43:K43 M43 N43 P43:R43 I44:K44 M44 N44 P44:R44 I45:L45 M45:O45 P45:R45 I46:L46 M46:N46 P46:R46 I49:L49 M49:O49 P49:R49 I50:L50 M50:O50 P50:R50 I58:L58 M58:O58 P58:R58 I59:L59 M59:O59 P59:R59 I66:L66 M66:O66 P66:R66 I72:L72 M72:O72 P72:R72 M32:M39 M40:M42 O32:O39 I29:L30 I47:L48 I67:L68 M29:O30 P29:R30 M47:O48 P47:R48 M67:O68 P67:R68 I60:L62 I63:L65 I69:L71 M60:O62 P60:R62 M63:O65 P63:R65 M69:O71 P69:R71 I13:L15 I73:L75 I16:L17 M16:O17 P16:R17 M13:O15 P13:R15 P40:R42 M73:O75 P73:R75 I3:L12 M3:O12 P3:R12 I25:L28 M25:O28 P25:R28 M19:O24 P19:R24 I19:L24 P32:R39 I32:K39 I76:L1048576 M76:O1048576 P76:R1048576 I51:L57 M51:O57 P51:R57 I40:K42">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B18 B43 B44 B45 B46 B49 B50 B58 B59 B66 B3:B10 B11:B15 B16:B17 B19:B24 B25:B28 B29:B31 B32:B33 B34:B35 B36:B37 B38:B39 B40:B42 B47:B48 B51:B57 B60:B62 B63:B65 B67:B68 B69:B72 B73:B75 B76:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
@@ -16931,20 +16937,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2 F18 F43 F44 F45 F46 F49 F50 F58 F59 F66 F3:F12 F13:F15 F16:F17 F19:F24 F25:F28 F29:F31 F32:F33 F34:F35 F36:F37 F38:F39 F40:F42 F47:F48 F51:F57 F60:F62 F63:F65 F67:F68 F69:F72 F73:F75 F76:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG18 AM18 AG43 AM43 AG44 AM44 AG45 AM45 AG46 AM46 AG49 AM49 AG50 AM50 AG58 AM58 AG59 AM59 AG66 AM66 AG72 AM72 AG3:AG12 AG13:AG15 AG16:AG17 AG19:AG24 AG25:AG28 AG29:AG31 AG32:AG39 AG40:AG42 AG47:AG48 AG51:AG57 AG60:AG62 AG63:AG65 AG67:AG68 AG69:AG71 AG73:AG75 AG76:AG1048576 AM3:AM12 AM13:AM15 AM16:AM17 AM19:AM24 AM25:AM28 AM29:AM31 AM32:AM39 AM40:AM42 AM47:AM48 AM51:AM57 AM60:AM62 AM63:AM65 AM67:AM68 AM69:AM71 AM73:AM75 AM76:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G18 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G49 G50 G58 G59 G66 G73 G74 G75 G76 G3:G12 G13:G15 G16:G17 G19:G24 G25:G28 G29:G30 G47:G48 G51:G57 G60:G62 G63:G65 G67:G68 G69:G72 G77:G1048576">
       <formula1>INDIRECT($F2)</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L2 M2:O2 P2:R2 I18:L18 M18:O18 P18:R18 I31:K31 M31 O31 P31:R31 N40 N41 N42 I43:K43 M43 N43 P43:R43 I44:K44 M44 N44 P44:R44 I45:L45 M45:O45 P45:R45 I46:L46 M46:N46 P46:R46 I49:L49 M49:O49 P49:R49 I50:L50 M50:O50 P50:R50 I58:L58 M58:O58 P58:R58 I59:L59 M59:O59 P59:R59 I66:L66 M66:O66 P66:R66 I72:L72 M72:O72 P72:R72 M32:M39 M40:M42 O32:O39 I29:L30 I47:L48 I67:L68 M29:O30 P29:R30 M47:O48 P47:R48 M67:O68 P67:R68 I60:L62 I63:L65 I69:L71 M60:O62 P60:R62 M63:O65 P63:R65 M69:O71 P69:R71 I13:L15 I73:L75 I16:L17 M16:O17 P16:R17 M13:O15 P13:R15 P40:R42 M73:O75 P73:R75 I3:L12 M3:O12 P3:R12 I25:L28 M25:O28 P25:R28 M19:O24 P19:R24 I19:L24 P32:R39 I32:K39 I76:L1048576 M76:O1048576 P76:R1048576 I51:L57 M51:O57 P51:R57 I40:K42">
-      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2 AK2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AE18 AK18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AE43 AK43 AA44 AE44 AK44 AA45 AE45 AK45 AA46 AE46 AK46 AA47 AA48 AA49 AE49 AK49 AA50 AE50 AK50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AE58 AK58 AA59 AE59 AK59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AE66 AK66 AA67 AA68 AA69 AA70 AA71 AA72 AE72 AK72 AA73 AA74 AA75 AA76:AA1048576 AE3:AE12 AE13:AE15 AE16:AE17 AE19:AE24 AE25:AE28 AE29:AE31 AE32:AE39 AE40:AE42 AE47:AE48 AE51:AE57 AE60:AE62 AE63:AE65 AE67:AE68 AE69:AE71 AE73:AE75 AE76:AE1048576 AK3:AK12 AK13:AK15 AK16:AK17 AK19:AK24 AK25:AK28 AK29:AK31 AK32:AK39 AK40:AK42 AK47:AK48 AK51:AK57 AK60:AK62 AK63:AK65 AK67:AK68 AK69:AK71 AK73:AK75 AK76:AK1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC18 AC43 AC44 AC45 AC46 AC49 AC50 AC58 AC59 AC66 AC72 AC3:AC12 AC13:AC15 AC16:AC17 AC19:AC24 AC25:AC28 AC29:AC31 AC32:AC39 AC40:AC42 AC47:AC48 AC51:AC57 AC60:AC62 AC63:AC65 AC67:AC68 AC69:AC71 AC73:AC75 AC76:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG18 AM18 AG43 AM43 AG44 AM44 AG45 AM45 AG46 AM46 AG49 AM49 AG50 AM50 AG58 AM58 AG59 AM59 AG66 AM66 AG72 AM72 AG3:AG12 AG13:AG15 AG16:AG17 AG19:AG24 AG25:AG28 AG29:AG31 AG32:AG39 AG40:AG42 AG47:AG48 AG51:AG57 AG60:AG62 AG63:AG65 AG67:AG68 AG69:AG71 AG73:AG75 AG76:AG1048576 AM3:AM12 AM13:AM15 AM16:AM17 AM19:AM24 AM25:AM28 AM29:AM31 AM32:AM39 AM40:AM42 AM47:AM48 AM51:AM57 AM60:AM62 AM63:AM65 AM67:AM68 AM69:AM71 AM73:AM75 AM76:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200303.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200303.xlsx
@@ -10298,12 +10298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -10390,13 +10390,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -10404,22 +10397,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10441,15 +10427,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10463,6 +10448,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -10471,13 +10472,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -10501,8 +10501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10524,11 +10525,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10553,19 +10553,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10577,31 +10631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10613,61 +10643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10685,25 +10661,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10715,25 +10709,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10744,30 +10744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10782,6 +10758,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10812,6 +10797,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -10831,66 +10831,66 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10899,94 +10899,94 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11025,14 +11025,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11376,10 +11376,10 @@
   <sheetPr/>
   <dimension ref="A1:AN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3:V75"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" customHeight="1"/>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="3" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A3" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>47</v>
@@ -11688,7 +11688,7 @@
     </row>
     <row r="4" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A4" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>50</v>
@@ -11760,7 +11760,7 @@
     </row>
     <row r="5" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A5" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>50</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="6" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A6" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>50</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="7" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A7" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>50</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="8" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A8" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>50</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="9" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A9" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>50</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="10" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A10" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>47</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="11" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A11" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>50</v>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="12" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A12" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>50</v>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="13" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A13" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>50</v>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="14" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A14" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>50</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="15" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A15" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>50</v>
@@ -12560,7 +12560,7 @@
     </row>
     <row r="16" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A16" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>50</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="17" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A17" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>50</v>
@@ -12708,7 +12708,7 @@
     </row>
     <row r="18" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A18" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>50</v>
@@ -12782,7 +12782,7 @@
     </row>
     <row r="19" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A19" s="18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>47</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="20" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A20" s="18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>50</v>
@@ -12930,7 +12930,7 @@
     </row>
     <row r="21" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A21" s="18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>50</v>
@@ -13002,7 +13002,7 @@
     </row>
     <row r="22" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A22" s="18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>50</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="23" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A23" s="18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>50</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="24" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A24" s="18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>50</v>
@@ -13218,7 +13218,7 @@
     </row>
     <row r="25" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A25" s="18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>50</v>
@@ -13290,7 +13290,7 @@
     </row>
     <row r="26" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A26" s="18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>50</v>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="27" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A27" s="18">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>50</v>
@@ -13434,7 +13434,7 @@
     </row>
     <row r="28" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A28" s="18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>50</v>
@@ -13506,7 +13506,7 @@
     </row>
     <row r="29" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A29" s="18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>47</v>
@@ -13580,7 +13580,7 @@
     </row>
     <row r="30" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A30" s="18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>50</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="31" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A31" s="18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>50</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="32" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A32" s="18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>50</v>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="33" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A33" s="18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>50</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="34" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A34" s="18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>50</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="35" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A35" s="18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>50</v>
@@ -14020,7 +14020,7 @@
     </row>
     <row r="36" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A36" s="18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>50</v>
@@ -14094,7 +14094,7 @@
     </row>
     <row r="37" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A37" s="18">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>50</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="38" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A38" s="18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>50</v>
@@ -14242,7 +14242,7 @@
     </row>
     <row r="39" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A39" s="18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>50</v>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="40" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A40" s="18">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>47</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="41" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A41" s="18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>50</v>
@@ -14466,7 +14466,7 @@
     </row>
     <row r="42" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A42" s="18">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>50</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="43" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A43" s="18">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>50</v>
@@ -14616,7 +14616,7 @@
     </row>
     <row r="44" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A44" s="18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>50</v>
@@ -14690,7 +14690,7 @@
     </row>
     <row r="45" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A45" s="18">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>50</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="46" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A46" s="18">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>50</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="47" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A47" s="18">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>50</v>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="48" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A48" s="18">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>50</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="49" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A49" s="18">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>50</v>
@@ -15134,7 +15134,7 @@
     </row>
     <row r="51" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A51" s="18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>50</v>
@@ -15208,7 +15208,7 @@
     </row>
     <row r="52" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A52" s="18">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>47</v>
@@ -15282,7 +15282,7 @@
     </row>
     <row r="53" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A53" s="18">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>50</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="54" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A54" s="18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>50</v>
@@ -15432,7 +15432,7 @@
     </row>
     <row r="55" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A55" s="18">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>50</v>
@@ -15506,7 +15506,7 @@
     </row>
     <row r="56" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A56" s="18">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>50</v>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="57" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A57" s="18">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>50</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="58" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A58" s="18">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>50</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="59" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A59" s="18">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>47</v>
@@ -15798,7 +15798,7 @@
     </row>
     <row r="60" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A60" s="18">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>50</v>
@@ -15868,7 +15868,7 @@
     </row>
     <row r="61" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A61" s="18">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>50</v>
@@ -15938,7 +15938,7 @@
     </row>
     <row r="62" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A62" s="18">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>50</v>
@@ -16008,7 +16008,7 @@
     </row>
     <row r="63" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A63" s="18">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>50</v>
@@ -16078,7 +16078,7 @@
     </row>
     <row r="64" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A64" s="18">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>50</v>
@@ -16148,7 +16148,7 @@
     </row>
     <row r="65" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A65" s="18">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>50</v>
@@ -16218,7 +16218,7 @@
     </row>
     <row r="66" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A66" s="18">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>47</v>
@@ -16288,7 +16288,7 @@
     </row>
     <row r="67" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A67" s="18">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>50</v>
@@ -16358,7 +16358,7 @@
     </row>
     <row r="68" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A68" s="18">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>50</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="69" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A69" s="18">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>50</v>
@@ -16498,7 +16498,7 @@
     </row>
     <row r="70" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A70" s="18">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>50</v>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="71" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A71" s="18">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>50</v>
@@ -16638,7 +16638,7 @@
     </row>
     <row r="72" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A72" s="18">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>50</v>
@@ -16708,7 +16708,7 @@
     </row>
     <row r="73" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A73" s="18">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>47</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="74" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A74" s="18">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>50</v>
@@ -16850,7 +16850,7 @@
     </row>
     <row r="75" s="12" customFormat="1" customHeight="1" spans="1:40">
       <c r="A75" s="18">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>50</v>
@@ -16922,11 +16922,11 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC18 AC43 AC44 AC45 AC46 AC49 AC50 AC58 AC59 AC66 AC72 AC3:AC12 AC13:AC15 AC16:AC17 AC19:AC24 AC25:AC28 AC29:AC31 AC32:AC39 AC40:AC42 AC47:AC48 AC51:AC57 AC60:AC62 AC63:AC65 AC67:AC68 AC69:AC71 AC73:AC75 AC76:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG18 AM18 AG43 AM43 AG44 AM44 AG45 AM45 AG46 AM46 AG49 AM49 AG50 AM50 AG58 AM58 AG59 AM59 AG66 AM66 AG72 AM72 AG3:AG12 AG13:AG15 AG16:AG17 AG19:AG24 AG25:AG28 AG29:AG31 AG32:AG39 AG40:AG42 AG47:AG48 AG51:AG57 AG60:AG62 AG63:AG65 AG67:AG68 AG69:AG71 AG73:AG75 AG76:AG1048576 AM3:AM12 AM13:AM15 AM16:AM17 AM19:AM24 AM25:AM28 AM29:AM31 AM32:AM39 AM40:AM42 AM47:AM48 AM51:AM57 AM60:AM62 AM63:AM65 AM67:AM68 AM69:AM71 AM73:AM75 AM76:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L2 M2:O2 P2:R2 I18:L18 M18:O18 P18:R18 I31:K31 M31 O31 P31:R31 N40 N41 N42 I43:K43 M43 N43 P43:R43 I44:K44 M44 N44 P44:R44 I45:L45 M45:O45 P45:R45 I46:L46 M46:N46 P46:R46 I49:L49 M49:O49 P49:R49 I50:L50 M50:O50 P50:R50 I58:L58 M58:O58 P58:R58 I59:L59 M59:O59 P59:R59 I66:L66 M66:O66 P66:R66 I72:L72 M72:O72 P72:R72 M32:M39 M40:M42 O32:O39 I29:L30 I47:L48 I67:L68 M29:O30 P29:R30 M47:O48 P47:R48 M67:O68 P67:R68 I60:L62 I63:L65 I69:L71 M60:O62 P60:R62 M63:O65 P63:R65 M69:O71 P69:R71 I13:L15 I73:L75 I16:L17 M16:O17 P16:R17 M13:O15 P13:R15 P40:R42 M73:O75 P73:R75 I3:L12 M3:O12 P3:R12 I25:L28 M25:O28 P25:R28 M19:O24 P19:R24 I19:L24 P32:R39 I32:K39 I76:L1048576 M76:O1048576 P76:R1048576 I51:L57 M51:O57 P51:R57 I40:K42">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2 AK2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AE18 AK18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AE43 AK43 AA44 AE44 AK44 AA45 AE45 AK45 AA46 AE46 AK46 AA47 AA48 AA49 AE49 AK49 AA50 AE50 AK50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AE58 AK58 AA59 AE59 AK59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AE66 AK66 AA67 AA68 AA69 AA70 AA71 AA72 AE72 AK72 AA73 AA74 AA75 AA76:AA1048576 AE3:AE12 AE13:AE15 AE16:AE17 AE19:AE24 AE25:AE28 AE29:AE31 AE32:AE39 AE40:AE42 AE47:AE48 AE51:AE57 AE60:AE62 AE63:AE65 AE67:AE68 AE69:AE71 AE73:AE75 AE76:AE1048576 AK3:AK12 AK13:AK15 AK16:AK17 AK19:AK24 AK25:AK28 AK29:AK31 AK32:AK39 AK40:AK42 AK47:AK48 AK51:AK57 AK60:AK62 AK63:AK65 AK67:AK68 AK69:AK71 AK73:AK75 AK76:AK1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2 B18 B43 B44 B45 B46 B49 B50 B58 B59 B66 B3:B10 B11:B15 B16:B17 B19:B24 B25:B28 B29:B31 B32:B33 B34:B35 B36:B37 B38:B39 B40:B42 B47:B48 B51:B57 B60:B62 B63:B65 B67:B68 B69:B72 B73:B75 B76:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
@@ -16940,11 +16940,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G18 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G49 G50 G58 G59 G66 G73 G74 G75 G76 G3:G12 G13:G15 G16:G17 G19:G24 G25:G28 G29:G30 G47:G48 G51:G57 G60:G62 G63:G65 G67:G68 G69:G72 G77:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2 AE2 AK2 AA3 AA4 AA5 AA6 AA7 AA8 AA9 AA10 AA11 AA12 AA13 AA14 AA15 AA16 AA17 AA18 AE18 AK18 AA19 AA20 AA21 AA22 AA23 AA24 AA25 AA26 AA27 AA28 AA29 AA30 AA31 AA32 AA33 AA34 AA35 AA36 AA37 AA38 AA39 AA40 AA41 AA42 AA43 AE43 AK43 AA44 AE44 AK44 AA45 AE45 AK45 AA46 AE46 AK46 AA47 AA48 AA49 AE49 AK49 AA50 AE50 AK50 AA51 AA52 AA53 AA54 AA55 AA56 AA57 AA58 AE58 AK58 AA59 AE59 AK59 AA60 AA61 AA62 AA63 AA64 AA65 AA66 AE66 AK66 AA67 AA68 AA69 AA70 AA71 AA72 AE72 AK72 AA73 AA74 AA75 AA76:AA1048576 AE3:AE12 AE13:AE15 AE16:AE17 AE19:AE24 AE25:AE28 AE29:AE31 AE32:AE39 AE40:AE42 AE47:AE48 AE51:AE57 AE60:AE62 AE63:AE65 AE67:AE68 AE69:AE71 AE73:AE75 AE76:AE1048576 AK3:AK12 AK13:AK15 AK16:AK17 AK19:AK24 AK25:AK28 AK29:AK31 AK32:AK39 AK40:AK42 AK47:AK48 AK51:AK57 AK60:AK62 AK63:AK65 AK67:AK68 AK69:AK71 AK73:AK75 AK76:AK1048576">
-      <formula1>"手动,自动"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AC18 AC43 AC44 AC45 AC46 AC49 AC50 AC58 AC59 AC66 AC72 AC3:AC12 AC13:AC15 AC16:AC17 AC19:AC24 AC25:AC28 AC29:AC31 AC32:AC39 AC40:AC42 AC47:AC48 AC51:AC57 AC60:AC62 AC63:AC65 AC67:AC68 AC69:AC71 AC73:AC75 AC76:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 AM2 AG18 AM18 AG43 AM43 AG44 AM44 AG45 AM45 AG46 AM46 AG49 AM49 AG50 AM50 AG58 AM58 AG59 AM59 AG66 AM66 AG72 AM72 AG3:AG12 AG13:AG15 AG16:AG17 AG19:AG24 AG25:AG28 AG29:AG31 AG32:AG39 AG40:AG42 AG47:AG48 AG51:AG57 AG60:AG62 AG63:AG65 AG67:AG68 AG69:AG71 AG73:AG75 AG76:AG1048576 AM3:AM12 AM13:AM15 AM16:AM17 AM19:AM24 AM25:AM28 AM29:AM31 AM32:AM39 AM40:AM42 AM47:AM48 AM51:AM57 AM60:AM62 AM63:AM65 AM67:AM68 AM69:AM71 AM73:AM75 AM76:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L2 M2:O2 P2:R2 I18:L18 M18:O18 P18:R18 I31:K31 M31 O31 P31:R31 N40 N41 N42 I43:K43 M43 N43 P43:R43 I44:K44 M44 N44 P44:R44 I45:L45 M45:O45 P45:R45 I46:L46 M46:N46 P46:R46 I49:L49 M49:O49 P49:R49 I50:L50 M50:O50 P50:R50 I58:L58 M58:O58 P58:R58 I59:L59 M59:O59 P59:R59 I66:L66 M66:O66 P66:R66 I72:L72 M72:O72 P72:R72 M32:M39 M40:M42 O32:O39 I29:L30 I47:L48 I67:L68 M29:O30 P29:R30 M47:O48 P47:R48 M67:O68 P67:R68 I13:L15 I73:L75 I16:L17 M16:O17 P16:R17 M13:O15 P13:R15 P40:R42 M73:O75 P73:R75 I60:L62 I63:L65 I69:L71 M60:O62 P60:R62 M63:O65 P63:R65 M69:O71 P69:R71 I3:L12 M3:O12 P3:R12 I25:L28 M25:O28 P25:R28 M19:O24 P19:R24 I19:L24 P32:R39 I32:K39 I76:L1048576 M76:O1048576 P76:R1048576 I51:L57 M51:O57 P51:R57 I40:K42">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
